--- a/1-Data-Codes/0-Raw_Data/sectors.xlsx
+++ b/1-Data-Codes/0-Raw_Data/sectors.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Pablo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Pablo\Dropbox\NK trade\JP\Data_Construction\RUV\1-Data-Codes\0-Raw_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="27">
   <si>
     <t>final_sector</t>
   </si>
@@ -78,6 +78,33 @@
   </si>
   <si>
     <t>Construction</t>
+  </si>
+  <si>
+    <t>Wholesale and Retail Trade</t>
+  </si>
+  <si>
+    <t>Transport Services</t>
+  </si>
+  <si>
+    <t>Information Services</t>
+  </si>
+  <si>
+    <t>Finance and Insurance</t>
+  </si>
+  <si>
+    <t>Real Estate and Rental and Leasing</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Health Care</t>
+  </si>
+  <si>
+    <t>Accommodation and Food Services</t>
+  </si>
+  <si>
+    <t>Other Services (except Public Administration)</t>
   </si>
 </sst>
 </file>
@@ -395,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -423,422 +450,422 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>111</v>
+        <v>311</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>112</v>
+        <v>312</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>113</v>
+        <v>313</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B5">
-        <v>114</v>
+        <v>314</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>115</v>
+        <v>315</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7">
-        <v>211</v>
+        <v>316</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>212</v>
+        <v>321</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>213</v>
+        <v>322</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B12">
-        <v>312</v>
+        <v>212</v>
       </c>
       <c r="C12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>213</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="B13">
-        <v>313</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
       <c r="D13" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B15">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B16">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="C17">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>322</v>
+        <v>331</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C19">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="C20">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B21">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C21">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B22">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="C22">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B23">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B24">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C24">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C25">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B26">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B27">
-        <v>335</v>
+        <v>230</v>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B28">
-        <v>336</v>
+        <v>236</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B29">
-        <v>337</v>
+        <v>237</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B30">
-        <v>338</v>
+        <v>238</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B31">
-        <v>339</v>
+        <v>423</v>
       </c>
       <c r="C31">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.4">
@@ -846,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B32">
-        <v>230</v>
+        <v>424</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.4">
@@ -860,104 +887,831 @@
         <v>13</v>
       </c>
       <c r="B33">
-        <v>231</v>
+        <v>425</v>
       </c>
       <c r="C33">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>13</v>
+      </c>
       <c r="B34">
-        <v>232</v>
+        <v>441</v>
       </c>
       <c r="C34">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>13</v>
+      </c>
       <c r="B35">
-        <v>233</v>
+        <v>442</v>
       </c>
       <c r="C35">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>13</v>
+      </c>
       <c r="B36">
-        <v>234</v>
+        <v>443</v>
       </c>
       <c r="C36">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>13</v>
+      </c>
       <c r="B37">
-        <v>235</v>
+        <v>444</v>
       </c>
       <c r="C37">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>13</v>
+      </c>
       <c r="B38">
-        <v>236</v>
+        <v>445</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>13</v>
+      </c>
       <c r="B39">
-        <v>237</v>
+        <v>446</v>
       </c>
       <c r="C39">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>13</v>
+      </c>
       <c r="B40">
-        <v>238</v>
+        <v>447</v>
       </c>
       <c r="C40">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>13</v>
+      </c>
       <c r="B41">
-        <v>239</v>
+        <v>448</v>
       </c>
       <c r="C41">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>13</v>
+      </c>
+      <c r="B42">
+        <v>451</v>
+      </c>
+      <c r="C42">
+        <v>21</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>13</v>
+      </c>
+      <c r="B43">
+        <v>452</v>
+      </c>
+      <c r="C43">
+        <v>21</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>453</v>
+      </c>
+      <c r="C44">
+        <v>21</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>13</v>
+      </c>
+      <c r="B45">
+        <v>454</v>
+      </c>
+      <c r="C45">
+        <v>21</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>13</v>
+      </c>
+      <c r="B46">
+        <v>481</v>
+      </c>
+      <c r="C46">
+        <v>23</v>
+      </c>
+      <c r="D46" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>13</v>
+      </c>
+      <c r="B47">
+        <v>482</v>
+      </c>
+      <c r="C47">
+        <v>23</v>
+      </c>
+      <c r="D47" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48">
+        <v>13</v>
+      </c>
+      <c r="B48">
+        <v>483</v>
+      </c>
+      <c r="C48">
+        <v>23</v>
+      </c>
+      <c r="D48" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49">
+        <v>484</v>
+      </c>
+      <c r="C49">
+        <v>24</v>
+      </c>
+      <c r="D49" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50">
+        <v>13</v>
+      </c>
+      <c r="B50">
+        <v>485</v>
+      </c>
+      <c r="C50">
+        <v>24</v>
+      </c>
+      <c r="D50" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51">
+        <v>13</v>
+      </c>
+      <c r="B51">
+        <v>486</v>
+      </c>
+      <c r="C51">
+        <v>24</v>
+      </c>
+      <c r="D51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52">
+        <v>13</v>
+      </c>
+      <c r="B52">
+        <v>487</v>
+      </c>
+      <c r="C52">
+        <v>25</v>
+      </c>
+      <c r="D52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53">
+        <v>13</v>
+      </c>
+      <c r="B53">
+        <v>488</v>
+      </c>
+      <c r="C53">
+        <v>26</v>
+      </c>
+      <c r="D53" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54">
+        <v>13</v>
+      </c>
+      <c r="B54">
+        <v>511</v>
+      </c>
+      <c r="C54">
+        <v>27</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55">
+        <v>13</v>
+      </c>
+      <c r="B55">
+        <v>512</v>
+      </c>
+      <c r="C55">
+        <v>27</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56">
+        <v>13</v>
+      </c>
+      <c r="B56">
+        <v>515</v>
+      </c>
+      <c r="C56">
+        <v>27</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57">
+        <v>13</v>
+      </c>
+      <c r="B57">
+        <v>517</v>
+      </c>
+      <c r="C57">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58">
+        <v>13</v>
+      </c>
+      <c r="B58">
+        <v>518</v>
+      </c>
+      <c r="C58">
+        <v>27</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>13</v>
+      </c>
+      <c r="B59">
+        <v>519</v>
+      </c>
+      <c r="C59">
+        <v>27</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60">
+        <v>13</v>
+      </c>
+      <c r="B60">
+        <v>521</v>
+      </c>
+      <c r="C60">
+        <v>28</v>
+      </c>
+      <c r="D60" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61">
+        <v>13</v>
+      </c>
+      <c r="B61">
+        <v>522</v>
+      </c>
+      <c r="C61">
+        <v>28</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62">
+        <v>13</v>
+      </c>
+      <c r="B62">
+        <v>523</v>
+      </c>
+      <c r="C62">
+        <v>28</v>
+      </c>
+      <c r="D62" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63">
+        <v>13</v>
+      </c>
+      <c r="B63">
+        <v>524</v>
+      </c>
+      <c r="C63">
+        <v>28</v>
+      </c>
+      <c r="D63" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64">
+        <v>13</v>
+      </c>
+      <c r="B64">
+        <v>525</v>
+      </c>
+      <c r="C64">
+        <v>28</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65">
+        <v>13</v>
+      </c>
+      <c r="B65">
+        <v>531</v>
+      </c>
+      <c r="C65">
+        <v>29</v>
+      </c>
+      <c r="D65" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66">
+        <v>13</v>
+      </c>
+      <c r="B66">
+        <v>532</v>
+      </c>
+      <c r="C66">
+        <v>29</v>
+      </c>
+      <c r="D66" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67">
+        <v>13</v>
+      </c>
+      <c r="B67">
+        <v>533</v>
+      </c>
+      <c r="C67">
+        <v>30</v>
+      </c>
+      <c r="D67" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68">
+        <v>13</v>
+      </c>
+      <c r="B68">
+        <v>611</v>
+      </c>
+      <c r="C68">
+        <v>32</v>
+      </c>
+      <c r="D68" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69">
+        <v>13</v>
+      </c>
+      <c r="B69">
+        <v>621</v>
+      </c>
+      <c r="C69">
+        <v>33</v>
+      </c>
+      <c r="D69" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70">
+        <v>13</v>
+      </c>
+      <c r="B70">
+        <v>622</v>
+      </c>
+      <c r="C70">
+        <v>33</v>
+      </c>
+      <c r="D70" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>623</v>
+      </c>
+      <c r="C71">
+        <v>33</v>
+      </c>
+      <c r="D71" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72">
+        <v>13</v>
+      </c>
+      <c r="B72">
+        <v>624</v>
+      </c>
+      <c r="C72">
+        <v>33</v>
+      </c>
+      <c r="D72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73">
+        <v>13</v>
+      </c>
+      <c r="B73">
+        <v>721</v>
+      </c>
+      <c r="C73">
+        <v>22</v>
+      </c>
+      <c r="D73" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74">
+        <v>13</v>
+      </c>
+      <c r="B74">
+        <v>722</v>
+      </c>
+      <c r="C74">
+        <v>22</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75">
+        <v>13</v>
+      </c>
+      <c r="B75">
+        <v>811</v>
+      </c>
+      <c r="C75">
+        <v>34</v>
+      </c>
+      <c r="D75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76">
+        <v>13</v>
+      </c>
+      <c r="B76">
+        <v>812</v>
+      </c>
+      <c r="C76">
+        <v>34</v>
+      </c>
+      <c r="D76" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77">
+        <v>13</v>
+      </c>
+      <c r="B77">
+        <v>813</v>
+      </c>
+      <c r="C77">
+        <v>34</v>
+      </c>
+      <c r="D77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78">
+        <v>13</v>
+      </c>
+      <c r="B78">
+        <v>814</v>
+      </c>
+      <c r="C78">
+        <v>34</v>
+      </c>
+      <c r="D78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79">
+        <v>13</v>
+      </c>
+      <c r="B79">
+        <v>493</v>
+      </c>
+      <c r="C79">
+        <v>34</v>
+      </c>
+      <c r="D79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80">
+        <v>13</v>
+      </c>
+      <c r="B80">
+        <v>541</v>
+      </c>
+      <c r="C80">
+        <v>34</v>
+      </c>
+      <c r="D80" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81">
+        <v>13</v>
+      </c>
+      <c r="B81">
+        <v>551</v>
+      </c>
+      <c r="C81">
+        <v>34</v>
+      </c>
+      <c r="D81" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82">
+        <v>13</v>
+      </c>
+      <c r="B82">
+        <v>561</v>
+      </c>
+      <c r="C82">
+        <v>34</v>
+      </c>
+      <c r="D82" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83">
+        <v>13</v>
+      </c>
+      <c r="B83">
+        <v>562</v>
+      </c>
+      <c r="C83">
+        <v>34</v>
+      </c>
+      <c r="D83" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84">
+        <v>13</v>
+      </c>
+      <c r="B84">
+        <v>711</v>
+      </c>
+      <c r="C84">
+        <v>34</v>
+      </c>
+      <c r="D84" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85">
+        <v>13</v>
+      </c>
+      <c r="B85">
+        <v>712</v>
+      </c>
+      <c r="C85">
+        <v>34</v>
+      </c>
+      <c r="D85" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86">
+        <v>13</v>
+      </c>
+      <c r="B86">
+        <v>713</v>
+      </c>
+      <c r="C86">
+        <v>34</v>
+      </c>
+      <c r="D86" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87">
+        <v>14</v>
+      </c>
+      <c r="B87">
+        <v>111</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88">
+        <v>14</v>
+      </c>
+      <c r="B88">
+        <v>112</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89">
+        <v>14</v>
+      </c>
+      <c r="B89">
+        <v>113</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90">
+        <v>14</v>
+      </c>
+      <c r="B90">
+        <v>114</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91">
+        <v>14</v>
+      </c>
+      <c r="B91">
+        <v>115</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D91">
+    <sortCondition ref="A2:A91"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/1-Data-Codes/0-Raw_Data/sectors.xlsx
+++ b/1-Data-Codes/0-Raw_Data/sectors.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="32">
   <si>
     <t>final_sector</t>
   </si>
@@ -105,6 +105,21 @@
   </si>
   <si>
     <t>Other Services (except Public Administration)</t>
+  </si>
+  <si>
+    <t>Final consumption expenditure by households</t>
+  </si>
+  <si>
+    <t>Final consumption expenditure by non-profit organisations serving households (NPISH)</t>
+  </si>
+  <si>
+    <t>Final consumption expenditure by government</t>
+  </si>
+  <si>
+    <t>Gross fixed capital formation</t>
+  </si>
+  <si>
+    <t>Changes in inventories and valuables</t>
   </si>
 </sst>
 </file>
@@ -422,10 +437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D91"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1708,6 +1723,61 @@
         <v>5</v>
       </c>
     </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92">
+        <v>0</v>
+      </c>
+      <c r="C92">
+        <v>37</v>
+      </c>
+      <c r="D92" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93">
+        <v>0</v>
+      </c>
+      <c r="C93">
+        <v>38</v>
+      </c>
+      <c r="D93" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94">
+        <v>0</v>
+      </c>
+      <c r="C94">
+        <v>39</v>
+      </c>
+      <c r="D94" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95">
+        <v>0</v>
+      </c>
+      <c r="C95">
+        <v>41</v>
+      </c>
+      <c r="D95" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96">
+        <v>0</v>
+      </c>
+      <c r="C96">
+        <v>42</v>
+      </c>
+      <c r="D96" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A2:D91">
     <sortCondition ref="A2:A91"/>
